--- a/data-raw/metadata/yuba_release_metadata.xlsx
+++ b/data-raw/metadata/yuba_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-yuba-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-yuba-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30920DB7-AFBE-2E47-B293-0131748FC6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B65BAC-CA34-254F-B7FB-576BC8BB0C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46380" yWindow="3280" windowWidth="28800" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -94,9 +94,6 @@
     <t>markedRun</t>
   </si>
   <si>
-    <t>markedLifeStage</t>
-  </si>
-  <si>
     <t>markedFishOrigin</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>releaseSite</t>
-  </si>
-  <si>
-    <t>releaseSubSite</t>
   </si>
   <si>
     <t>nReleased</t>
@@ -190,9 +184,6 @@
     <t>Run of fish marked. Levels = c("Not applicable (n/a)", "Fall")</t>
   </si>
   <si>
-    <t>Lifestage of fish marked. Levels =  NA</t>
-  </si>
-  <si>
     <t>Origin or production type of fish marked. Levels = c("Not applicable (n/a)", "Hatchery", "Natural")</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
   </si>
   <si>
     <t>Site where fish were released. Levels = c("Not applicable", "Hallwood Release Site")</t>
-  </si>
-  <si>
-    <t>Subsite (within site) where fish were released. Corresponds to a trap location. Levels = NA</t>
   </si>
   <si>
     <t>Mark type that was applied to the release group. Levels = c(NA, "Pigment / dye", "Elastomer")</t>
@@ -552,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -634,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -643,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -707,26 +695,26 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
       <c r="J4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="16">
@@ -754,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -792,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -830,7 +818,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -868,7 +856,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -906,7 +894,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -939,30 +927,40 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3">
+        <v>257</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2018</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -977,30 +975,40 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>8</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1015,40 +1023,30 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3">
-        <v>257</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2018</v>
-      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1063,40 +1061,30 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>8</v>
-      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1116,7 +1104,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1153,8 +1141,8 @@
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1189,15 +1177,15 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1226,21 +1214,11 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1264,21 +1242,11 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1778,7 +1746,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -1806,7 +1774,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -1890,7 +1858,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1918,7 +1886,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -2842,7 +2810,7 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
+      <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -2870,7 +2838,7 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
+      <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -28769,78 +28737,22 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C58:C1001 C1:C46" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C56:C999 C1:C44" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E999" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F999" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1001" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H999" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28867,13 +28779,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -28904,7 +28816,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>13</v>
